--- a/Data/Export/Common/旗帜配置Flag.xlsx
+++ b/Data/Export/Common/旗帜配置Flag.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sango_Card\Data\Export\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CE7363-3911-47CC-80A1-8B78809922A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E177A9B-F92D-4C6E-BA94-491B02C08AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flags" sheetId="36" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="158">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,24 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>河北</t>
-  </si>
-  <si>
-    <t>中原</t>
-  </si>
-  <si>
-    <t>西凉</t>
-  </si>
-  <si>
-    <t>江东</t>
-  </si>
-  <si>
-    <t>巴蜀</t>
-  </si>
-  <si>
-    <t>南蛮</t>
-  </si>
-  <si>
     <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -418,6 +400,145 @@
   </si>
   <si>
     <t>223,138,211</t>
+  </si>
+  <si>
+    <t>曹操</t>
+  </si>
+  <si>
+    <t>刘备</t>
+  </si>
+  <si>
+    <t>孙坚</t>
+  </si>
+  <si>
+    <t>马腾</t>
+  </si>
+  <si>
+    <t>刘焉</t>
+  </si>
+  <si>
+    <t>董卓</t>
+  </si>
+  <si>
+    <t>刘表</t>
+  </si>
+  <si>
+    <t>袁绍</t>
+  </si>
+  <si>
+    <t>袁术</t>
+  </si>
+  <si>
+    <t>张鲁</t>
+  </si>
+  <si>
+    <t>吕布</t>
+  </si>
+  <si>
+    <t>公孙瓒</t>
+  </si>
+  <si>
+    <t>公孙度</t>
+  </si>
+  <si>
+    <t>刘虞</t>
+  </si>
+  <si>
+    <t>韩馥</t>
+  </si>
+  <si>
+    <t>司马懿</t>
+  </si>
+  <si>
+    <t>孔融</t>
+  </si>
+  <si>
+    <t>刘岱</t>
+  </si>
+  <si>
+    <t>陶谦</t>
+  </si>
+  <si>
+    <t>孔胄</t>
+  </si>
+  <si>
+    <t>韩遂</t>
+  </si>
+  <si>
+    <t>王朗</t>
+  </si>
+  <si>
+    <t>严白虎</t>
+  </si>
+  <si>
+    <t>刘繇</t>
+  </si>
+  <si>
+    <t>张绣</t>
+  </si>
+  <si>
+    <t>孟获</t>
+  </si>
+  <si>
+    <t>雍闿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张角</t>
+  </si>
+  <si>
+    <t>何进</t>
+  </si>
+  <si>
+    <t>丁原</t>
+  </si>
+  <si>
+    <t>韩玄</t>
+  </si>
+  <si>
+    <t>金旋</t>
+  </si>
+  <si>
+    <t>赵范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘度</t>
+  </si>
+  <si>
+    <t>锺会</t>
+  </si>
+  <si>
+    <t>邓艾</t>
+  </si>
+  <si>
+    <t>毌丘俭</t>
+  </si>
+  <si>
+    <t>羌族头目</t>
+  </si>
+  <si>
+    <t>山越头目</t>
+  </si>
+  <si>
+    <t>乌丸头目</t>
+  </si>
+  <si>
+    <t>南蛮头目</t>
+  </si>
+  <si>
+    <t>贼将</t>
+  </si>
+  <si>
+    <t>74,27,240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,240,26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>164,131,135</t>
   </si>
 </sst>
 </file>
@@ -904,23 +1025,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F1D98-4B0B-4096-90A4-E28636B1D41A}">
   <dimension ref="A1:U68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
     <col min="2" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="71.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="2" customWidth="1"/>
-    <col min="10" max="11" width="10.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -987,7 +1108,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="13"/>
@@ -1018,7 +1139,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E4" s="15"/>
       <c r="J4" s="15"/>
@@ -1031,16 +1152,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="4"/>
@@ -1056,19 +1177,19 @@
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="4"/>
@@ -1083,19 +1204,19 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="4"/>
@@ -1110,19 +1231,19 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="4"/>
@@ -1137,19 +1258,19 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="4"/>
@@ -1164,19 +1285,19 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="4"/>
@@ -1191,17 +1312,19 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="D11" s="2" t="s">
-        <v>83</v>
+        <v>157</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="4"/>
@@ -1216,17 +1339,19 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="D12" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="4"/>
@@ -1241,17 +1366,19 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="D13" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="4"/>
@@ -1266,17 +1393,19 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="D14" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="4"/>
@@ -1291,17 +1420,19 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="D15" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="4"/>
@@ -1316,17 +1447,19 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="D16" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="4"/>
@@ -1341,17 +1474,19 @@
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="D17" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="4"/>
@@ -1366,17 +1501,19 @@
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="D18" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="4"/>
@@ -1391,17 +1528,19 @@
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="D19" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="4"/>
@@ -1416,17 +1555,19 @@
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="D20" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="4"/>
@@ -1441,17 +1582,19 @@
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="D21" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="4"/>
@@ -1466,17 +1609,19 @@
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="D22" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="4"/>
@@ -1491,17 +1636,19 @@
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="D23" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="4"/>
@@ -1516,17 +1663,19 @@
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="D24" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="4"/>
@@ -1541,18 +1690,20 @@
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="D25" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F25" s="2" t="str">
         <f ca="1">_xlfn.FLOOR.MATH(RAND()*255)&amp;","&amp;_xlfn.FLOOR.MATH(RAND()*255)&amp;","&amp;_xlfn.FLOOR.MATH(RAND()*255)</f>
-        <v>24,72,122</v>
+        <v>18,180,163</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="4"/>
@@ -1567,18 +1718,20 @@
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="D26" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F26" s="2" t="str">
-        <f t="shared" ref="D26:F46" ca="1" si="0">_xlfn.FLOOR.MATH(RAND()*255)&amp;","&amp;_xlfn.FLOOR.MATH(RAND()*255)&amp;","&amp;_xlfn.FLOOR.MATH(RAND()*255)</f>
-        <v>125,187,116</v>
+        <f t="shared" ref="F26:F46" ca="1" si="0">_xlfn.FLOOR.MATH(RAND()*255)&amp;","&amp;_xlfn.FLOOR.MATH(RAND()*255)&amp;","&amp;_xlfn.FLOOR.MATH(RAND()*255)</f>
+        <v>34,137,145</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="4"/>
@@ -1593,18 +1746,20 @@
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="D27" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F27" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>227,230,12</v>
+        <v>62,172,243</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="4"/>
@@ -1619,18 +1774,20 @@
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>136</v>
+      </c>
       <c r="D28" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F28" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10,91,41</v>
+        <v>205,183,126</v>
       </c>
       <c r="I28" s="6"/>
       <c r="J28" s="4"/>
@@ -1645,18 +1802,20 @@
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="D29" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F29" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>140,103,72</v>
+        <v>104,242,253</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="4"/>
@@ -1671,18 +1830,20 @@
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="D30" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F30" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>229,157,165</v>
+        <v>30,105,225</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="4"/>
@@ -1697,18 +1858,20 @@
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="D31" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F31" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>66,188,64</v>
+        <v>218,197,141</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="4"/>
@@ -1723,18 +1886,20 @@
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="D32" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F32" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>186,124,34</v>
+        <v>199,91,35</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="4"/>
@@ -1749,18 +1914,20 @@
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="D33" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F33" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>91,201,33</v>
+        <v>54,8,150</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="4"/>
@@ -1775,18 +1942,20 @@
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D34" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F34" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>156,11,42</v>
+        <v>224,16,190</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="4"/>
@@ -1801,18 +1970,20 @@
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="D35" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F35" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>113,129,175</v>
+        <v>78,116,10</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="4"/>
@@ -1827,18 +1998,20 @@
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="D36" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F36" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>229,217,8</v>
+        <v>1,91,139</v>
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="4"/>
@@ -1853,17 +2026,20 @@
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F37" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>218,40,162</v>
+        <v>252,180,116</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -1877,17 +2053,20 @@
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F38" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>87,161,227</v>
+        <v>208,91,26</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="4"/>
@@ -1902,17 +2081,20 @@
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F39" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>187,88,65</v>
+        <v>7,96,184</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="4"/>
@@ -1927,17 +2109,20 @@
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F40" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>72,15,164</v>
+        <v>204,193,107</v>
       </c>
       <c r="I40" s="6"/>
       <c r="J40" s="4"/>
@@ -1952,17 +2137,20 @@
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F41" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>232,48,209</v>
+        <v>126,75,35</v>
       </c>
       <c r="I41" s="6"/>
       <c r="J41" s="4"/>
@@ -1977,17 +2165,20 @@
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F42" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>32,251,95</v>
+        <v>182,122,48</v>
       </c>
       <c r="I42" s="6"/>
       <c r="J42" s="4"/>
@@ -2002,17 +2193,20 @@
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F43" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>16,13,250</v>
+        <v>197,19,185</v>
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="4"/>
@@ -2027,17 +2221,20 @@
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F44" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>48,181,17</v>
+        <v>52,237,115</v>
       </c>
       <c r="I44" s="6"/>
       <c r="J44" s="4"/>
@@ -2052,17 +2249,20 @@
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F45" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>219,129,6</v>
+        <v>4,29,163</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="4"/>
@@ -2077,17 +2277,20 @@
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F46" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>21,150,2</v>
+        <v>111,238,210</v>
       </c>
       <c r="I46" s="6"/>
       <c r="J46" s="4"/>
